--- a/npm_modules/RoomType Video upload test.xlsx
+++ b/npm_modules/RoomType Video upload test.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,7 +582,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
